--- a/output/fit_clients/fit_round_260.xlsx
+++ b/output/fit_clients/fit_round_260.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1644970237.591171</v>
+        <v>1745070241.387773</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06969309321682285</v>
+        <v>0.08324471237051219</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02920620703646013</v>
+        <v>0.03889739288990887</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>822485066.6968517</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2040502964.386092</v>
+        <v>1659347021.414001</v>
       </c>
       <c r="F3" t="n">
-        <v>0.161873279059534</v>
+        <v>0.1455468825204622</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04104705602358246</v>
+        <v>0.04732004967619562</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1020251528.516666</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4706036812.374988</v>
+        <v>4332156120.392697</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1310678228722419</v>
+        <v>0.1652481183284685</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02577854619735894</v>
+        <v>0.02997060568130785</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>94</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2353018470.387083</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3660773762.757441</v>
+        <v>3228151348.749366</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09170616998732277</v>
+        <v>0.1095157965262755</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04194482688623421</v>
+        <v>0.04688827586026934</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>100</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1830386907.539742</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2616375734.678416</v>
+        <v>1772326828.711221</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1037936141970343</v>
+        <v>0.0961456629286724</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04389559295366489</v>
+        <v>0.05379891365233819</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>42</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1308187830.220248</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1968286031.342261</v>
+        <v>2614952872.781862</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06432325012335757</v>
+        <v>0.06251471959161403</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03553321113839313</v>
+        <v>0.03074846022426935</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>82</v>
-      </c>
-      <c r="J7" t="n">
-        <v>984143079.8591168</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3929148861.54309</v>
+        <v>3356491370.476834</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1707288118872733</v>
+        <v>0.2007270808370277</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02881819791615455</v>
+        <v>0.02143752535089371</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>83</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1964574583.263298</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2300340442.82715</v>
+        <v>1488270845.052667</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1951005180980076</v>
+        <v>0.1555536373918334</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03195197655658497</v>
+        <v>0.0369906143208326</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1150170206.349019</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4846847350.784407</v>
+        <v>4462134517.141984</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2018190359959978</v>
+        <v>0.1906197659440839</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05341004759844971</v>
+        <v>0.0335513682203477</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>109</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2423423762.870389</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3833207963.867395</v>
+        <v>3791741464.235452</v>
       </c>
       <c r="F11" t="n">
-        <v>0.153073836257791</v>
+        <v>0.1731007304342268</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04424833279050185</v>
+        <v>0.04487615302232326</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>107</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1916603982.946537</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2697671013.854671</v>
+        <v>2702535073.764812</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1399333809921574</v>
+        <v>0.1212029072790798</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03398284504649145</v>
+        <v>0.03780186101280045</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>87</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1348835497.24986</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4402229240.323419</v>
+        <v>4450733873.216599</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09924708640327265</v>
+        <v>0.07084560457518825</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02486341932599813</v>
+        <v>0.03142177826897992</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>87</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2201114654.658303</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3123005184.586724</v>
+        <v>3385367535.790955</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1231373419615168</v>
+        <v>0.1548727102583844</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03495392604964325</v>
+        <v>0.03693058206095381</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>84</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1561502617.823471</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1540302510.036884</v>
+        <v>1328404160.819824</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08624656183600536</v>
+        <v>0.0975824681894132</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04027107171584728</v>
+        <v>0.03001354791563792</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>770151349.6511478</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2230478695.65263</v>
+        <v>2580300327.780187</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08791937751135642</v>
+        <v>0.1100950234689998</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05122388407576348</v>
+        <v>0.03920070716340925</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>48</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1115239402.718107</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4868894700.516938</v>
+        <v>4851756691.870774</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1084452634463655</v>
+        <v>0.1129947498313098</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04908892584352981</v>
+        <v>0.04759213190968152</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>76</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2434447341.854801</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2765983402.101716</v>
+        <v>2479229271.603893</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1349891066838571</v>
+        <v>0.1636702400763419</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0282264096042911</v>
+        <v>0.02549663224138234</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>85</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1382991748.249287</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1166566129.329076</v>
+        <v>988340734.2307653</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1553940463011885</v>
+        <v>0.1597238625160821</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02134733176633474</v>
+        <v>0.02590549224546019</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>583283134.4432844</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2570843575.376473</v>
+        <v>2523197057.233958</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1204757997804365</v>
+        <v>0.1348959383234286</v>
       </c>
       <c r="G20" t="n">
-        <v>0.024890045081887</v>
+        <v>0.03180897381611512</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>39</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1285421753.23697</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2219548523.888405</v>
+        <v>2200513896.50621</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07110028047169384</v>
+        <v>0.06863319599588587</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03658792099349333</v>
+        <v>0.03051653427115374</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>20</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1109774276.864467</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3178071964.482985</v>
+        <v>3439731767.969782</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1441079494064391</v>
+        <v>0.1158567796250358</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04128452626254184</v>
+        <v>0.04020588946001206</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>71</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1589036033.104813</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>940256413.5123494</v>
+        <v>1121634420.116529</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1857056764647837</v>
+        <v>0.1461363921535639</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04800859125192797</v>
+        <v>0.03411815950265278</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>470128286.9943729</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2859675763.450897</v>
+        <v>2533416745.600843</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1154202845331207</v>
+        <v>0.1164131443095707</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02704901034973567</v>
+        <v>0.03345281126617011</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>76</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1429837926.379599</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>939690417.1914066</v>
+        <v>1063873229.158509</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08432100100603664</v>
+        <v>0.0983191969050764</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02868172043501464</v>
+        <v>0.01906038850558283</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>469845286.467764</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1315210952.950595</v>
+        <v>1188541322.698181</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1223963335228452</v>
+        <v>0.07912798769437199</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03225492392957054</v>
+        <v>0.03195977295039139</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>657605525.7534641</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3238522995.876583</v>
+        <v>4115257373.645697</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1147700956902067</v>
+        <v>0.1110109533428445</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02213483302329144</v>
+        <v>0.02550176827548727</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>64</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1619261545.934666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3298335419.278234</v>
+        <v>2909057862.448358</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1513789969298061</v>
+        <v>0.1115435241636951</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04617995421854255</v>
+        <v>0.03195081048400546</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>85</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1649167746.73992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5320240082.911937</v>
+        <v>5751534861.401859</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09811479355192848</v>
+        <v>0.1459951593463582</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04287653128759693</v>
+        <v>0.02847603205645739</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>115</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2660119966.824809</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1679925168.599997</v>
+        <v>1769995661.707355</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1330797385507966</v>
+        <v>0.1050197470478446</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03190376598371043</v>
+        <v>0.02849590583764741</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>839962585.3001806</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1162820396.141471</v>
+        <v>1316720059.61485</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07893766004199747</v>
+        <v>0.1103935059281676</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04812586492993804</v>
+        <v>0.04805519264635411</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>581410158.2840528</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1499915531.203244</v>
+        <v>1752046359.625124</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1201548605905526</v>
+        <v>0.07906006242534699</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02357673253874631</v>
+        <v>0.0277963090121427</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>749957833.926349</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2278165281.642308</v>
+        <v>2395315265.202054</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1692162839427075</v>
+        <v>0.1262747442307508</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04335980742116046</v>
+        <v>0.04552908184411804</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>79</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1139082697.936431</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1084325458.756589</v>
+        <v>1154794905.448821</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1135295577780301</v>
+        <v>0.09192650590116236</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0180105723904074</v>
+        <v>0.01923557764646741</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>542162753.4415439</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1005066191.404419</v>
+        <v>1133771327.550334</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08644135793954857</v>
+        <v>0.104261820457633</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03411079275254476</v>
+        <v>0.04168984579757644</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>502533113.1791565</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2651174556.31224</v>
+        <v>2941909830.144335</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1564690110767049</v>
+        <v>0.1228031087814903</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02778080054891168</v>
+        <v>0.02193958104068117</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>64</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1325587287.994042</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2589400621.889585</v>
+        <v>2803624333.335585</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09502675876732845</v>
+        <v>0.1083972003605166</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03530220854910737</v>
+        <v>0.03922894098422472</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>67</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1294700419.28028</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1694315112.167448</v>
+        <v>1409218125.323475</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08149732589082015</v>
+        <v>0.1069014824174379</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03324177134100754</v>
+        <v>0.0293501491887508</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>847157577.8838392</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1975483810.034089</v>
+        <v>1839702462.755953</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1393555347522824</v>
+        <v>0.1517382430452074</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02783441525085022</v>
+        <v>0.03067420428593503</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>987741903.2611139</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1415912930.910714</v>
+        <v>1422802214.068166</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1449226040597943</v>
+        <v>0.1215277425925062</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05393772837508095</v>
+        <v>0.05766029377632889</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>707956452.7055426</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2289242453.409698</v>
+        <v>2819589882.306712</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1258900275383157</v>
+        <v>0.1517623787736242</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04207930227976175</v>
+        <v>0.03032348341667653</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>62</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1144621272.611414</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3361890789.940973</v>
+        <v>4175603379.578004</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09497485735258289</v>
+        <v>0.1141344959180399</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04416617459438356</v>
+        <v>0.03588019842618437</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>92</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1680945380.317859</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2779842470.429614</v>
+        <v>2522887165.623206</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1712680163772009</v>
+        <v>0.1484679969134775</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01816651503006126</v>
+        <v>0.02358698215273011</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>93</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1389921255.731748</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1431148918.487338</v>
+        <v>2307885787.456822</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08457190439390187</v>
+        <v>0.08824769059083787</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02814223211629347</v>
+        <v>0.03314202165057585</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>715574452.0874461</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2166213679.826684</v>
+        <v>1806649829.590013</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1307017063311085</v>
+        <v>0.1405717203191253</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03891245092772333</v>
+        <v>0.0463123685172382</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1083106847.514364</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5052842136.623796</v>
+        <v>3622902034.675339</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1118181156502008</v>
+        <v>0.1292350243670295</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04583530839087541</v>
+        <v>0.05421497679838093</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>92</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2526421098.12958</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3213383429.310966</v>
+        <v>4043475299.171669</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1236927878223924</v>
+        <v>0.1434958654147077</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05419404340896553</v>
+        <v>0.0525736838102959</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>70</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1606691669.250569</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3656513839.92657</v>
+        <v>3330527300.193611</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0943036411751178</v>
+        <v>0.08054331667296306</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03755311285547479</v>
+        <v>0.024108853368341</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>88</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1828256974.291616</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1570414983.064365</v>
+        <v>1673439870.053959</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1333918705559996</v>
+        <v>0.1360329431274764</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04437751362876874</v>
+        <v>0.03112771528249265</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>785207512.6114358</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3766010869.590842</v>
+        <v>4096429254.299776</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1661828969186634</v>
+        <v>0.1200375570079629</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03220138373419555</v>
+        <v>0.04192246420801968</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>89</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1883005440.125608</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1248563081.315553</v>
+        <v>1395108929.878988</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1747892099221006</v>
+        <v>0.144352845782274</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03527517595465011</v>
+        <v>0.03787320714171499</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>624281584.3379815</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3753889730.053637</v>
+        <v>5078052215.541057</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09213513037492078</v>
+        <v>0.1063113996433541</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04620459653101644</v>
+        <v>0.05533933134089711</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>107</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1876944935.983773</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3416573890.673706</v>
+        <v>3293914803.938356</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1383245694329698</v>
+        <v>0.1320846466209725</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02774406292229496</v>
+        <v>0.025115323473129</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>74</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1708286949.002709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4700946191.405701</v>
+        <v>3423141483.023293</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1539940076562111</v>
+        <v>0.1258731759122679</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04252930955685507</v>
+        <v>0.04507585742772714</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>85</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2350473214.819979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4023590508.637026</v>
+        <v>3465431620.996283</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1970792368251529</v>
+        <v>0.1737005787364297</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02377747017407948</v>
+        <v>0.03071933444306611</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>73</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2011795230.250726</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1769806415.959715</v>
+        <v>1171759933.530931</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1285474619720303</v>
+        <v>0.1163402359191673</v>
       </c>
       <c r="G56" t="n">
-        <v>0.053164912294473</v>
+        <v>0.05522292180606181</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>884903210.2712691</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3887552911.427958</v>
+        <v>4128899855.814446</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1240249243442494</v>
+        <v>0.1501246256446994</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01745305210461206</v>
+        <v>0.01808400151057463</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>82</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1943776534.637958</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1715820161.61782</v>
+        <v>1298875220.45555</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1594671363155924</v>
+        <v>0.1892194951500996</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03450666411954086</v>
+        <v>0.03262066225813172</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>857910092.2581948</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3549325305.962983</v>
+        <v>5201580909.899446</v>
       </c>
       <c r="F59" t="n">
-        <v>0.113566750663998</v>
+        <v>0.08140332404465782</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03750881174605566</v>
+        <v>0.04877286920156339</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>72</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1774662650.669735</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2925703911.69579</v>
+        <v>3756548619.378194</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1889732289625535</v>
+        <v>0.150915649957024</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03321597254096654</v>
+        <v>0.02724591979201872</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>80</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1462852018.399754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2429961835.958107</v>
+        <v>3203938389.31518</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1673264886764087</v>
+        <v>0.1683536022532328</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02603617692122211</v>
+        <v>0.03258022577924178</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>90</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1214980952.198945</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1499114876.024056</v>
+        <v>1927683068.480127</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1499563189841832</v>
+        <v>0.1927414203083457</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03203353766494236</v>
+        <v>0.0312607918045739</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>749557420.8989278</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4354941027.228296</v>
+        <v>4278788032.261002</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07974551537894187</v>
+        <v>0.0698884645328485</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03242380885634969</v>
+        <v>0.03183845701662433</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>74</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2177470560.155267</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5369748711.641895</v>
+        <v>3777799109.392438</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1410635696609096</v>
+        <v>0.1240884704891304</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02301244149477932</v>
+        <v>0.02260569766524337</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>81</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2684874488.024052</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3990757183.159562</v>
+        <v>5638677398.808125</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1601412081353034</v>
+        <v>0.1620664687116355</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02785913437596266</v>
+        <v>0.02616978238704596</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>94</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1995378610.714683</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4233012343.876913</v>
+        <v>4151620341.506873</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1471926056181757</v>
+        <v>0.1335323640304493</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04281320101899215</v>
+        <v>0.0479474761694083</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>76</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2116506157.999588</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3210831047.091572</v>
+        <v>2195793653.763417</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06469464524395779</v>
+        <v>0.07207098810561638</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05059932626955472</v>
+        <v>0.03948695687997738</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>83</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1605415523.923817</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5745209550.122539</v>
+        <v>4452378338.962539</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09807924226525944</v>
+        <v>0.1373044706084589</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04595126296764698</v>
+        <v>0.03459860939021952</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>87</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2872604876.613234</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2287892804.637249</v>
+        <v>1780536303.293837</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1390199014573286</v>
+        <v>0.1671185640086832</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05745774783687004</v>
+        <v>0.0442058243871907</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1143946444.492781</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2301010901.85986</v>
+        <v>2286035353.052074</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09560769218996183</v>
+        <v>0.07765104270651325</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04969210368218162</v>
+        <v>0.0434627007566394</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>74</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1150505382.40333</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4910096443.044421</v>
+        <v>4365155826.772557</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1319629834481145</v>
+        <v>0.127889888092596</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0263033153874199</v>
+        <v>0.02074041413667587</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>95</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2455048320.512228</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1593744329.177331</v>
+        <v>1502697756.011968</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1028252460297885</v>
+        <v>0.09502007424136084</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04728440699609508</v>
+        <v>0.04959262659269139</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>796872176.4596885</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3087927966.278583</v>
+        <v>3569506043.405139</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09424696934578308</v>
+        <v>0.08584705028685338</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03502155154572983</v>
+        <v>0.04031491504145553</v>
       </c>
       <c r="H73" t="b">
         <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>100</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1543963971.06813</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3006987206.101754</v>
+        <v>3014039916.052997</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1598553062235673</v>
+        <v>0.1114203053159767</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02599770090140161</v>
+        <v>0.03504102807064363</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>89</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1503493667.804534</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2244970507.863289</v>
+        <v>1878639280.601802</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1354402759906846</v>
+        <v>0.1323831279498125</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0379298984654089</v>
+        <v>0.03293333045871361</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1122485195.115322</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4265029166.553845</v>
+        <v>4625273908.03204</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1204861004499098</v>
+        <v>0.09667117806116027</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02150459196356152</v>
+        <v>0.02273986198153351</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>63</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2132514579.071011</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2055936632.47054</v>
+        <v>1598847544.753328</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1159504140359657</v>
+        <v>0.1406060664084294</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02348106126357396</v>
+        <v>0.02046808188537231</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1027968386.010689</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4222224430.654943</v>
+        <v>4804562636.311578</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1200092798288637</v>
+        <v>0.1219309155694605</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05416158020722796</v>
+        <v>0.03456926716188998</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>90</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2111112165.157131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1470382754.453207</v>
+        <v>1370562366.646235</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1067632811699749</v>
+        <v>0.1416075029977792</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02675453775022896</v>
+        <v>0.03070737906253678</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>735191406.257652</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4809874088.990733</v>
+        <v>3806183428.457492</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09141099358513391</v>
+        <v>0.08192894939533495</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03334681776772896</v>
+        <v>0.03848892317092768</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>54</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2404937084.232359</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3395962744.08757</v>
+        <v>3980806823.635389</v>
       </c>
       <c r="F81" t="n">
-        <v>0.11428699070959</v>
+        <v>0.1291048061809624</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02507319080601492</v>
+        <v>0.03275522183815454</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>58</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1697981312.819132</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4143593042.89675</v>
+        <v>3834714554.007446</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2081724177943928</v>
+        <v>0.1861385729467919</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02329808189875333</v>
+        <v>0.02889932912377742</v>
       </c>
       <c r="H82" t="b">
         <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>91</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2071796553.185019</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1514468311.600696</v>
+        <v>1711965095.792049</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1287650562089678</v>
+        <v>0.0969683077492009</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03072024755405687</v>
+        <v>0.03471886953757308</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>757234080.6369892</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2408891053.401956</v>
+        <v>1620725664.150429</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07382824797197661</v>
+        <v>0.1160126207278038</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0329309142595135</v>
+        <v>0.05067766998985187</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1204445471.863485</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2919233697.271047</v>
+        <v>3019955078.676437</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1727216863807262</v>
+        <v>0.1577406100182718</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03862242574354546</v>
+        <v>0.05244509378387652</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>98</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1459616899.882035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2359041297.689024</v>
+        <v>2346186755.791812</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1181050700181441</v>
+        <v>0.1155504023725232</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01917070610381808</v>
+        <v>0.02551636840584456</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>34</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1179520726.391821</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>999819016.492824</v>
+        <v>1447123408.145602</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1281443061165705</v>
+        <v>0.1702826998534266</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02695425570043543</v>
+        <v>0.02721876434202517</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>499909512.5139164</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2315497207.665397</v>
+        <v>2653893478.526429</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1443475993132861</v>
+        <v>0.1328817777568137</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03207546126435092</v>
+        <v>0.03668845766142944</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>102</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1157748566.627211</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3232803104.790293</v>
+        <v>2402715996.949946</v>
       </c>
       <c r="F89" t="n">
-        <v>0.09748321667612277</v>
+        <v>0.1580574462249819</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02654386797866561</v>
+        <v>0.03533235855815934</v>
       </c>
       <c r="H89" t="b">
         <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>88</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1616401573.433707</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1881700646.198892</v>
+        <v>1964717955.289396</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08599268323744021</v>
+        <v>0.1209503290825007</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0411175859760813</v>
+        <v>0.0439111560169093</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>940850371.670059</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1462477016.768723</v>
+        <v>1475040586.086173</v>
       </c>
       <c r="F91" t="n">
-        <v>0.166765456417023</v>
+        <v>0.1742468622434497</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04768544760560216</v>
+        <v>0.04581829040771649</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>731238552.3165425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2428832236.886755</v>
+        <v>2987421793.720406</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1000133301288861</v>
+        <v>0.1087882953137828</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03710796816517968</v>
+        <v>0.04599939579331434</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>66</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1214416096.993874</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4654046762.119647</v>
+        <v>3514439979.344437</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1201079405387763</v>
+        <v>0.1096068862740921</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03486327009201758</v>
+        <v>0.03483345581500382</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>81</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2327023339.389524</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2173880123.060301</v>
+        <v>1763039750.361504</v>
       </c>
       <c r="F94" t="n">
-        <v>0.114142384679391</v>
+        <v>0.1437558039810858</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02608368920655149</v>
+        <v>0.03700694590511809</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1086940082.517581</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3029937284.427123</v>
+        <v>2706519355.391041</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08472922895426646</v>
+        <v>0.08629637718938662</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04410203847067628</v>
+        <v>0.03622043910436921</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>63</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1514968639.745592</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2263543947.7965</v>
+        <v>2029609413.257939</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1387999875283669</v>
+        <v>0.1024620390685901</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04583031407705569</v>
+        <v>0.04058317788116481</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1131771932.743062</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5364466432.577005</v>
+        <v>3660159261.946222</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1433698773097331</v>
+        <v>0.148010068163047</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0280847513018588</v>
+        <v>0.01894473111878186</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>84</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2682233382.396502</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2712726647.118427</v>
+        <v>2705926842.174961</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1272808644374052</v>
+        <v>0.1169262605995056</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03152401242816582</v>
+        <v>0.02052695582224263</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>70</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1356363288.792764</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3128296153.836072</v>
+        <v>2681727387.367388</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1037718782521977</v>
+        <v>0.1442587916675919</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0259614049771659</v>
+        <v>0.02490462606720355</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>81</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1564148072.145081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3567620290.34575</v>
+        <v>3348656666.885599</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1369638256791083</v>
+        <v>0.1647166254654705</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02040018433030372</v>
+        <v>0.02220777294033441</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>79</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1783810181.32194</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3408113623.890106</v>
+        <v>3580416959.667017</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2189530327687758</v>
+        <v>0.1889159452225343</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04212988121263704</v>
+        <v>0.05624546464179515</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>104</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1704056954.914826</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_260.xlsx
+++ b/output/fit_clients/fit_round_260.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1745070241.387773</v>
+        <v>1745005143.708853</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08324471237051219</v>
+        <v>0.0836782655475157</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03889739288990887</v>
+        <v>0.03896012369697471</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1659347021.414001</v>
+        <v>2399522202.492036</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1455468825204622</v>
+        <v>0.1244565235527037</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04732004967619562</v>
+        <v>0.04413305014024047</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4332156120.392697</v>
+        <v>3646409522.406467</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1652481183284685</v>
+        <v>0.1623356121633507</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02997060568130785</v>
+        <v>0.03628699105310847</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3228151348.749366</v>
+        <v>3127209079.073864</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1095157965262755</v>
+        <v>0.09435003746763262</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04688827586026934</v>
+        <v>0.04601990010927678</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1772326828.711221</v>
+        <v>2605583012.717798</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0961456629286724</v>
+        <v>0.142393776727884</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05379891365233819</v>
+        <v>0.05253907151195263</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2614952872.781862</v>
+        <v>2006425541.658628</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06251471959161403</v>
+        <v>0.09272425770522047</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03074846022426935</v>
+        <v>0.0468758073066581</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3356491370.476834</v>
+        <v>2662534143.980405</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2007270808370277</v>
+        <v>0.1444496501799298</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02143752535089371</v>
+        <v>0.0222075209442684</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1488270845.052667</v>
+        <v>1405394215.685584</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1555536373918334</v>
+        <v>0.1624469435878771</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0369906143208326</v>
+        <v>0.03253181974366447</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4462134517.141984</v>
+        <v>3888133442.61297</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1906197659440839</v>
+        <v>0.1968325854767738</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0335513682203477</v>
+        <v>0.05036313286428491</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3791741464.235452</v>
+        <v>3700202546.538417</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1731007304342268</v>
+        <v>0.1857896118197118</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04487615302232326</v>
+        <v>0.03943182106946673</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2702535073.764812</v>
+        <v>2280042555.973614</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1212029072790798</v>
+        <v>0.168465840124395</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03780186101280045</v>
+        <v>0.04597241594246913</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4450733873.216599</v>
+        <v>5101053906.66708</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07084560457518825</v>
+        <v>0.06418972780853439</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03142177826897992</v>
+        <v>0.02059837787088973</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3385367535.790955</v>
+        <v>3671753403.05878</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1548727102583844</v>
+        <v>0.1491892970409227</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03693058206095381</v>
+        <v>0.0388371372698141</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1328404160.819824</v>
+        <v>1510198420.450524</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0975824681894132</v>
+        <v>0.06808457095223412</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03001354791563792</v>
+        <v>0.04871301837814289</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2580300327.780187</v>
+        <v>2161159944.410275</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1100950234689998</v>
+        <v>0.1106387287421945</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03920070716340925</v>
+        <v>0.03534729665318263</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4851756691.870774</v>
+        <v>3325391979.768531</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1129947498313098</v>
+        <v>0.1085629026494011</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04759213190968152</v>
+        <v>0.04836375885017306</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,22 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2479229271.603893</v>
+        <v>3880689972.437315</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1636702400763419</v>
+        <v>0.1269746910758148</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02549663224138234</v>
+        <v>0.03036795368927896</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>988340734.2307653</v>
+        <v>1368730469.517419</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1597238625160821</v>
+        <v>0.1777638233611319</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02590549224546019</v>
+        <v>0.01681752777822644</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2523197057.233958</v>
+        <v>1968056378.524136</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1348959383234286</v>
+        <v>0.1541254052114751</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03180897381611512</v>
+        <v>0.02844462125808564</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2200513896.50621</v>
+        <v>2001235605.402748</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06863319599588587</v>
+        <v>0.1000673330700107</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03051653427115374</v>
+        <v>0.03958306503964829</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3439731767.969782</v>
+        <v>3607788803.50031</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1158567796250358</v>
+        <v>0.128505139558671</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04020588946001206</v>
+        <v>0.05615858141012121</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1121634420.116529</v>
+        <v>1388282276.227279</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1461363921535639</v>
+        <v>0.1610326142064105</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03411815950265278</v>
+        <v>0.04747658693656964</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2533416745.600843</v>
+        <v>3223371538.733198</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1164131443095707</v>
+        <v>0.1409506999115231</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03345281126617011</v>
+        <v>0.02721414482888156</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1063873229.158509</v>
+        <v>1151603294.46939</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0983191969050764</v>
+        <v>0.07593823674094302</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01906038850558283</v>
+        <v>0.02538729274424564</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1188541322.698181</v>
+        <v>1093318939.898578</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07912798769437199</v>
+        <v>0.1212272453694752</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03195977295039139</v>
+        <v>0.03439415195270663</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4115257373.645697</v>
+        <v>4283967547.842869</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1110109533428445</v>
+        <v>0.1201341807534568</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02550176827548727</v>
+        <v>0.01863046262790757</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2909057862.448358</v>
+        <v>3491031949.861222</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1115435241636951</v>
+        <v>0.1199602667494013</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03195081048400546</v>
+        <v>0.04338746882261537</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5751534861.401859</v>
+        <v>4587464695.962987</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1459951593463582</v>
+        <v>0.1091748082417501</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02847603205645739</v>
+        <v>0.03071478266358027</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1769995661.707355</v>
+        <v>2031812553.878232</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1050197470478446</v>
+        <v>0.1296873315989899</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02849590583764741</v>
+        <v>0.02809664640111833</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,16 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1316720059.61485</v>
+        <v>1345188622.341846</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1103935059281676</v>
+        <v>0.1005327392049297</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04805519264635411</v>
+        <v>0.04614049558087698</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1326,16 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1752046359.625124</v>
+        <v>1419950294.163306</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07906006242534699</v>
+        <v>0.10532930678386</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0277963090121427</v>
+        <v>0.0238506793019234</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2395315265.202054</v>
+        <v>2121615996.833413</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1262747442307508</v>
+        <v>0.1690827790839648</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04552908184411804</v>
+        <v>0.05934791223798747</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1154794905.448821</v>
+        <v>1240248668.02239</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09192650590116236</v>
+        <v>0.07680273641860158</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01923557764646741</v>
+        <v>0.02674076803492949</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1133771327.550334</v>
+        <v>1246702362.453604</v>
       </c>
       <c r="F35" t="n">
-        <v>0.104261820457633</v>
+        <v>0.07742496275137724</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04168984579757644</v>
+        <v>0.03782893574215436</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2941909830.144335</v>
+        <v>2741394916.684277</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1228031087814903</v>
+        <v>0.1760859520188753</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02193958104068117</v>
+        <v>0.02513915829190462</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2803624333.335585</v>
+        <v>2405505676.002508</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1083972003605166</v>
+        <v>0.08794876254627383</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03922894098422472</v>
+        <v>0.03043615640055268</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1409218125.323475</v>
+        <v>1924906623.855521</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1069014824174379</v>
+        <v>0.1006205962672543</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0293501491887508</v>
+        <v>0.03659095077166649</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1839702462.755953</v>
+        <v>2117105841.257664</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1517382430452074</v>
+        <v>0.1201800824222013</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03067420428593503</v>
+        <v>0.02225543125456285</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1422802214.068166</v>
+        <v>1271736347.736923</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1215277425925062</v>
+        <v>0.1402933676402116</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05766029377632889</v>
+        <v>0.03638752435924852</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2819589882.306712</v>
+        <v>1972260923.878957</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1517623787736242</v>
+        <v>0.1270292131292641</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03032348341667653</v>
+        <v>0.03542231945891681</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4175603379.578004</v>
+        <v>2963281639.131267</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1141344959180399</v>
+        <v>0.09827102304870368</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03588019842618437</v>
+        <v>0.03504987991886571</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2522887165.623206</v>
+        <v>1911146581.429095</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1484679969134775</v>
+        <v>0.1743419074581127</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02358698215273011</v>
+        <v>0.02099459413435455</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2307885787.456822</v>
+        <v>2296795982.567359</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08824769059083787</v>
+        <v>0.08657876185710363</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03314202165057585</v>
+        <v>0.03001761729596879</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1806649829.590013</v>
+        <v>2040519351.460406</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1405717203191253</v>
+        <v>0.1237501131527096</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0463123685172382</v>
+        <v>0.05541869881300837</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3622902034.675339</v>
+        <v>4723721787.5873</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1292350243670295</v>
+        <v>0.1405230019198331</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05421497679838093</v>
+        <v>0.05502573068428312</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4043475299.171669</v>
+        <v>4963568793.196445</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1434958654147077</v>
+        <v>0.1282331432334433</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0525736838102959</v>
+        <v>0.0597109088385857</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3330527300.193611</v>
+        <v>3148664754.81158</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08054331667296306</v>
+        <v>0.07528383376962849</v>
       </c>
       <c r="G48" t="n">
-        <v>0.024108853368341</v>
+        <v>0.03714386478159495</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1673439870.053959</v>
+        <v>1829230762.732912</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1360329431274764</v>
+        <v>0.1341839060987567</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03112771528249265</v>
+        <v>0.02727419242825545</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4096429254.299776</v>
+        <v>4052158610.545479</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1200375570079629</v>
+        <v>0.1770440967873761</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04192246420801968</v>
+        <v>0.03588137299179442</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1395108929.878988</v>
+        <v>1457020993.569048</v>
       </c>
       <c r="F51" t="n">
-        <v>0.144352845782274</v>
+        <v>0.1272603115553508</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03787320714171499</v>
+        <v>0.03483695726380379</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5078052215.541057</v>
+        <v>3900684758.578588</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1063113996433541</v>
+        <v>0.09228869597017236</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05533933134089711</v>
+        <v>0.04767363539926764</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3293914803.938356</v>
+        <v>3417803105.134389</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1320846466209725</v>
+        <v>0.2033389990712768</v>
       </c>
       <c r="G53" t="n">
-        <v>0.025115323473129</v>
+        <v>0.02824991859577537</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3423141483.023293</v>
+        <v>4646916590.46035</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1258731759122679</v>
+        <v>0.1205502133520809</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04507585742772714</v>
+        <v>0.03218749150370778</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3465431620.996283</v>
+        <v>4190475397.871786</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1737005787364297</v>
+        <v>0.2239581736727617</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03071933444306611</v>
+        <v>0.03205253185897385</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1171759933.530931</v>
+        <v>1677548972.49801</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1163402359191673</v>
+        <v>0.1425132661299117</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05522292180606181</v>
+        <v>0.04341988432378088</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4128899855.814446</v>
+        <v>4161082262.600498</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1501246256446994</v>
+        <v>0.1155204002519683</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01808400151057463</v>
+        <v>0.02646678973202493</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1298875220.45555</v>
+        <v>1527342918.129956</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1892194951500996</v>
+        <v>0.1871791227311991</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03262066225813172</v>
+        <v>0.02983751987710132</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,16 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5201580909.899446</v>
+        <v>4842424677.568407</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08140332404465782</v>
+        <v>0.103808319643639</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04877286920156339</v>
+        <v>0.04882216981240026</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3756548619.378194</v>
+        <v>2562978229.533414</v>
       </c>
       <c r="F60" t="n">
-        <v>0.150915649957024</v>
+        <v>0.149079922230336</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02724591979201872</v>
+        <v>0.03268342177277872</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3203938389.31518</v>
+        <v>2447236865.136768</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1683536022532328</v>
+        <v>0.1502539535082274</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03258022577924178</v>
+        <v>0.03043994735031371</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1927683068.480127</v>
+        <v>1959883730.340685</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1927414203083457</v>
+        <v>0.1479134280621687</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0312607918045739</v>
+        <v>0.0332859268422682</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4278788032.261002</v>
+        <v>5318680801.120035</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0698884645328485</v>
+        <v>0.07374600663766656</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03183845701662433</v>
+        <v>0.03661442690818142</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3777799109.392438</v>
+        <v>4852930786.773165</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1240884704891304</v>
+        <v>0.1395397336912975</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02260569766524337</v>
+        <v>0.0314701686438565</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,19 +2244,19 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5638677398.808125</v>
+        <v>5687031676.521177</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1620664687116355</v>
+        <v>0.1716356576884566</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02616978238704596</v>
+        <v>0.02762128872695889</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2272,19 +2272,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4151620341.506873</v>
+        <v>3554851077.728023</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1335323640304493</v>
+        <v>0.1491338250505496</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0479474761694083</v>
+        <v>0.03329055914403902</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2195793653.763417</v>
+        <v>2945603662.99302</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07207098810561638</v>
+        <v>0.100452396541643</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03948695687997738</v>
+        <v>0.03435662639296356</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4452378338.962539</v>
+        <v>5977047079.265431</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1373044706084589</v>
+        <v>0.1554771622425715</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03459860939021952</v>
+        <v>0.04994795292433191</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1780536303.293837</v>
+        <v>2455669171.369357</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1671185640086832</v>
+        <v>0.159204754770073</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0442058243871907</v>
+        <v>0.0566898074923756</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2286035353.052074</v>
+        <v>3434531660.056426</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07765104270651325</v>
+        <v>0.09183087614381864</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0434627007566394</v>
+        <v>0.0315220472266947</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4365155826.772557</v>
+        <v>5296233649.694224</v>
       </c>
       <c r="F71" t="n">
-        <v>0.127889888092596</v>
+        <v>0.1551370817307867</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02074041413667587</v>
+        <v>0.02950054022568954</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1502697756.011968</v>
+        <v>2254244845.58053</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09502007424136084</v>
+        <v>0.1087329115849221</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04959262659269139</v>
+        <v>0.04734813904063288</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,16 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3569506043.405139</v>
+        <v>2853722886.757998</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08584705028685338</v>
+        <v>0.09352663908894619</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04031491504145553</v>
+        <v>0.03853794965415727</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3014039916.052997</v>
+        <v>3081436138.198206</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1114203053159767</v>
+        <v>0.1677272133695365</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03504102807064363</v>
+        <v>0.0353687662903924</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1878639280.601802</v>
+        <v>2366183393.513839</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1323831279498125</v>
+        <v>0.1591494892929672</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03293333045871361</v>
+        <v>0.03285531732070209</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4625273908.03204</v>
+        <v>4455483792.751855</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09667117806116027</v>
+        <v>0.124651225508894</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02273986198153351</v>
+        <v>0.03040597105534834</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1598847544.753328</v>
+        <v>1683602918.02454</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1406060664084294</v>
+        <v>0.1419949065295637</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02046808188537231</v>
+        <v>0.02362362453402118</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4804562636.311578</v>
+        <v>4319359211.355354</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1219309155694605</v>
+        <v>0.1185724025418923</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03456926716188998</v>
+        <v>0.04625431564260497</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1370562366.646235</v>
+        <v>1408449220.668027</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1416075029977792</v>
+        <v>0.1763991274827078</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03070737906253678</v>
+        <v>0.03125149988305707</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3806183428.457492</v>
+        <v>5472813767.25711</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08192894939533495</v>
+        <v>0.1029810306868917</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03848892317092768</v>
+        <v>0.02334590182379302</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3980806823.635389</v>
+        <v>5198322003.203809</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1291048061809624</v>
+        <v>0.1191651411920331</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03275522183815454</v>
+        <v>0.02546762907220822</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,22 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3834714554.007446</v>
+        <v>5030817103.558547</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1861385729467919</v>
+        <v>0.1615917408546398</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02889932912377742</v>
+        <v>0.02790802246778536</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1711965095.792049</v>
+        <v>2365111749.171968</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0969683077492009</v>
+        <v>0.09647960108968906</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03471886953757308</v>
+        <v>0.04534489104059297</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,22 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1620725664.150429</v>
+        <v>1805291604.89603</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1160126207278038</v>
+        <v>0.1091493318054253</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05067766998985187</v>
+        <v>0.0424268829898652</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3019955078.676437</v>
+        <v>3294959723.798038</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1577406100182718</v>
+        <v>0.1488457027829488</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05244509378387652</v>
+        <v>0.04339833854582892</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2346186755.791812</v>
+        <v>2532898390.186878</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1155504023725232</v>
+        <v>0.1187276757310464</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02551636840584456</v>
+        <v>0.02123931422041319</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1447123408.145602</v>
+        <v>1398495886.710166</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1702826998534266</v>
+        <v>0.1511166038657144</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02721876434202517</v>
+        <v>0.02950809386381645</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2653893478.526429</v>
+        <v>2425497105.443706</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1328817777568137</v>
+        <v>0.1507096067625422</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03668845766142944</v>
+        <v>0.02832848958351658</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2402715996.949946</v>
+        <v>2614909121.309623</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1580574462249819</v>
+        <v>0.1241525617148032</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03533235855815934</v>
+        <v>0.04114746330997394</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1964717955.289396</v>
+        <v>2138417837.675799</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1209503290825007</v>
+        <v>0.08851941163208266</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0439111560169093</v>
+        <v>0.05601860881928108</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,22 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1475040586.086173</v>
+        <v>1768259221.157079</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1742468622434497</v>
+        <v>0.1358426816363811</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04581829040771649</v>
+        <v>0.05364752668125229</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3006,13 +3006,13 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2987421793.720406</v>
+        <v>2531188296.271729</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1087882953137828</v>
+        <v>0.07285422512018351</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04599939579331434</v>
+        <v>0.04235676757069984</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3514439979.344437</v>
+        <v>4576669628.407445</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1096068862740921</v>
+        <v>0.1276923546064692</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03483345581500382</v>
+        <v>0.03805929483797017</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1763039750.361504</v>
+        <v>1840664594.334751</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1437558039810858</v>
+        <v>0.1238735381752317</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03700694590511809</v>
+        <v>0.03227465890546884</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2706519355.391041</v>
+        <v>3182861903.531542</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08629637718938662</v>
+        <v>0.1176709787486516</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03622043910436921</v>
+        <v>0.03399984376704571</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2029609413.257939</v>
+        <v>2044530415.427064</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1024620390685901</v>
+        <v>0.1134000951486693</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04058317788116481</v>
+        <v>0.03639678693515119</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3660159261.946222</v>
+        <v>4712727933.866758</v>
       </c>
       <c r="F97" t="n">
-        <v>0.148010068163047</v>
+        <v>0.139935345139835</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01894473111878186</v>
+        <v>0.02212265669698523</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,16 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2705926842.174961</v>
+        <v>3701997213.987567</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1169262605995056</v>
+        <v>0.1280385605525728</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02052695582224263</v>
+        <v>0.03203315631303132</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2681727387.367388</v>
+        <v>2579033666.893994</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1442587916675919</v>
+        <v>0.1146786239637397</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02490462606720355</v>
+        <v>0.02666640100961092</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3348656666.885599</v>
+        <v>3429137263.473844</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1647166254654705</v>
+        <v>0.1318622246995272</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02220777294033441</v>
+        <v>0.01758020586830997</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3580416959.667017</v>
+        <v>2292504247.227038</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1889159452225343</v>
+        <v>0.2068566029607124</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05624546464179515</v>
+        <v>0.03907140574801621</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_260.xlsx
+++ b/output/fit_clients/fit_round_260.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1745005143.708853</v>
+        <v>2391692300.674496</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0836782655475157</v>
+        <v>0.09345702306217597</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03896012369697471</v>
+        <v>0.03649857069356427</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2399522202.492036</v>
+        <v>2039432582.103053</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1244565235527037</v>
+        <v>0.1181879298409573</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04413305014024047</v>
+        <v>0.04002837357943086</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3646409522.406467</v>
+        <v>5201196787.376115</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1623356121633507</v>
+        <v>0.1559415255788267</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03628699105310847</v>
+        <v>0.03293924785515515</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>140</v>
+      </c>
+      <c r="J4" t="n">
+        <v>259</v>
+      </c>
+      <c r="K4" t="n">
+        <v>95.75236380945771</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +602,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3127209079.073864</v>
+        <v>2791084788.566102</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09435003746763262</v>
+        <v>0.09058240238842163</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04601990010927678</v>
+        <v>0.0436719409964792</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>108</v>
+      </c>
+      <c r="J5" t="n">
+        <v>259</v>
+      </c>
+      <c r="K5" t="n">
+        <v>50.42620698779014</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +639,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2605583012.717798</v>
+        <v>2156824771.727728</v>
       </c>
       <c r="F6" t="n">
-        <v>0.142393776727884</v>
+        <v>0.1455100129790377</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05253907151195263</v>
+        <v>0.03833012830366919</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +674,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2006425541.658628</v>
+        <v>1969614357.051922</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09272425770522047</v>
+        <v>0.07459300094858062</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0468758073066581</v>
+        <v>0.04034054757153784</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +709,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2662534143.980405</v>
+        <v>3423254477.087086</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1444496501799298</v>
+        <v>0.1913754596212009</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0222075209442684</v>
+        <v>0.02692102605368506</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>69</v>
+      </c>
+      <c r="J8" t="n">
+        <v>255</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +750,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1405394215.685584</v>
+        <v>1785518284.970031</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1624469435878771</v>
+        <v>0.1950437182682887</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03253181974366447</v>
+        <v>0.0248030378003311</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3888133442.61297</v>
+        <v>5593645676.459803</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1968325854767738</v>
+        <v>0.1431718315638748</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05036313286428491</v>
+        <v>0.03343272033031949</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>235</v>
+      </c>
+      <c r="J10" t="n">
+        <v>260</v>
+      </c>
+      <c r="K10" t="n">
+        <v>102.0833307012789</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +816,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3700202546.538417</v>
+        <v>3958456052.435546</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1857896118197118</v>
+        <v>0.1419882257348397</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03943182106946673</v>
+        <v>0.04481661180864976</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>105</v>
+      </c>
+      <c r="J11" t="n">
+        <v>260</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2280042555.973614</v>
+        <v>3057736639.042951</v>
       </c>
       <c r="F12" t="n">
-        <v>0.168465840124395</v>
+        <v>0.1352365769615525</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04597241594246913</v>
+        <v>0.04573701177254124</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +886,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5101053906.66708</v>
+        <v>3731515162.04173</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06418972780853439</v>
+        <v>0.09280356565335582</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02059837787088973</v>
+        <v>0.02472465528812278</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>132</v>
+      </c>
+      <c r="J13" t="n">
+        <v>259</v>
+      </c>
+      <c r="K13" t="n">
+        <v>78.56127128031189</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +923,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3671753403.05878</v>
+        <v>3774525609.122436</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1491892970409227</v>
+        <v>0.1478295875434185</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0388371372698141</v>
+        <v>0.04031885673354772</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>51</v>
+      </c>
+      <c r="J14" t="n">
+        <v>260</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1510198420.450524</v>
+        <v>1603710071.820697</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06808457095223412</v>
+        <v>0.09289962420592629</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04871301837814289</v>
+        <v>0.03909855390423281</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2161159944.410275</v>
+        <v>2818633167.345765</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1106387287421945</v>
+        <v>0.075316553112368</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03534729665318263</v>
+        <v>0.05049015059010008</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,17 +1034,24 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3325391979.768531</v>
+        <v>4907989303.161259</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1085629026494011</v>
+        <v>0.1395252507880283</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04836375885017306</v>
+        <v>0.03817715531533752</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>124</v>
+      </c>
+      <c r="J17" t="n">
+        <v>260</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3880689972.437315</v>
+        <v>2677344616.359867</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1269746910758148</v>
+        <v>0.1378890187588943</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03036795368927896</v>
+        <v>0.02839914856817659</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>64</v>
+      </c>
+      <c r="J18" t="n">
+        <v>254</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -962,17 +1104,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1368730469.517419</v>
+        <v>1145046479.690454</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1777638233611319</v>
+        <v>0.1471128783176515</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01681752777822644</v>
+        <v>0.02734924685564308</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1968056378.524136</v>
+        <v>2609596907.369127</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1541254052114751</v>
+        <v>0.1075253417521926</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02844462125808564</v>
+        <v>0.02093563662695354</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2001235605.402748</v>
+        <v>2635836102.532039</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1000673330700107</v>
+        <v>0.09136808972601608</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03958306503964829</v>
+        <v>0.04468437267810665</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1209,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3607788803.50031</v>
+        <v>4021319707.646098</v>
       </c>
       <c r="F22" t="n">
-        <v>0.128505139558671</v>
+        <v>0.09910767652944938</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05615858141012121</v>
+        <v>0.03758286747393616</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>67</v>
+      </c>
+      <c r="J22" t="n">
+        <v>260</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1388282276.227279</v>
+        <v>1290820233.623794</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1610326142064105</v>
+        <v>0.1435179921025838</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04747658693656964</v>
+        <v>0.05470245844543493</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,16 +1279,25 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3223371538.733198</v>
+        <v>2677545325.09147</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1409506999115231</v>
+        <v>0.09982609567895935</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02721414482888156</v>
+        <v>0.03720701200991267</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>78</v>
+      </c>
+      <c r="J24" t="n">
+        <v>259</v>
+      </c>
+      <c r="K24" t="n">
+        <v>38.01649677881775</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1151603294.46939</v>
+        <v>1181817469.724466</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07593823674094302</v>
+        <v>0.08719429134660724</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02538729274424564</v>
+        <v>0.02502132308657379</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1093318939.898578</v>
+        <v>1351428657.054957</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1212272453694752</v>
+        <v>0.09806799164521773</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03439415195270663</v>
+        <v>0.0346275303973226</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,16 +1386,25 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4283967547.842869</v>
+        <v>3335566224.673146</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1201341807534568</v>
+        <v>0.1521290669678181</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01863046262790757</v>
+        <v>0.01733334557588889</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>106</v>
+      </c>
+      <c r="J27" t="n">
+        <v>259</v>
+      </c>
+      <c r="K27" t="n">
+        <v>56.50839660190437</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1417,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3491031949.861222</v>
+        <v>2425779201.597294</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1199602667494013</v>
+        <v>0.1040478997613414</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04338746882261537</v>
+        <v>0.03556752125476401</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>52</v>
+      </c>
+      <c r="J28" t="n">
+        <v>258</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1452,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4587464695.962987</v>
+        <v>4190212762.148894</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1091748082417501</v>
+        <v>0.1505126707687756</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03071478266358027</v>
+        <v>0.04112509719391667</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>248</v>
+      </c>
+      <c r="J29" t="n">
+        <v>260</v>
+      </c>
+      <c r="K29" t="n">
+        <v>103.504297165802</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1495,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2031812553.878232</v>
+        <v>1482473240.112371</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1296873315989899</v>
+        <v>0.1298215951132806</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02809664640111833</v>
+        <v>0.02691612318081274</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1524,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1345188622.341846</v>
+        <v>1147344619.050033</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1005327392049297</v>
+        <v>0.07242925901233092</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04614049558087698</v>
+        <v>0.04984926829644706</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1565,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1419950294.163306</v>
+        <v>1786097832.705728</v>
       </c>
       <c r="F32" t="n">
-        <v>0.10532930678386</v>
+        <v>0.1148921563044479</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0238506793019234</v>
+        <v>0.02547565842311808</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1594,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2121615996.833413</v>
+        <v>3043065965.521073</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1690827790839648</v>
+        <v>0.1510499142372433</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05934791223798747</v>
+        <v>0.0493780464898987</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1629,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1240248668.02239</v>
+        <v>1183021202.179979</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07680273641860158</v>
+        <v>0.1168329472614827</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02674076803492949</v>
+        <v>0.02813719528049328</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1664,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1246702362.453604</v>
+        <v>1121862782.550137</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07742496275137724</v>
+        <v>0.1102998456682413</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03782893574215436</v>
+        <v>0.04486290666344026</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1699,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2741394916.684277</v>
+        <v>2040099390.06661</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1760859520188753</v>
+        <v>0.1641740357962721</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02513915829190462</v>
+        <v>0.02504515635846849</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1740,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2405505676.002508</v>
+        <v>2491538305.334681</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08794876254627383</v>
+        <v>0.08588365756911814</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03043615640055268</v>
+        <v>0.02701294006854903</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1769,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1924906623.855521</v>
+        <v>1969568919.916575</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1006205962672543</v>
+        <v>0.09715743619502924</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03659095077166649</v>
+        <v>0.03356818405351224</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1804,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2117105841.257664</v>
+        <v>1845985173.106254</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1201800824222013</v>
+        <v>0.1298388735403646</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02225543125456285</v>
+        <v>0.03023788743295787</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1845,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1271736347.736923</v>
+        <v>1223241637.691693</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1402933676402116</v>
+        <v>0.1424437960548495</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03638752435924852</v>
+        <v>0.040081187349144</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1880,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1972260923.878957</v>
+        <v>2268953880.132037</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1270292131292641</v>
+        <v>0.1118174168155413</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03542231945891681</v>
+        <v>0.03813049259963684</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1909,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2963281639.131267</v>
+        <v>3124731098.975619</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09827102304870368</v>
+        <v>0.09035257566593204</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03504987991886571</v>
+        <v>0.03896491118734253</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>108</v>
+      </c>
+      <c r="J42" t="n">
+        <v>258</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1911146581.429095</v>
+        <v>3014099503.660853</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1743419074581127</v>
+        <v>0.1907277530080918</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02099459413435455</v>
+        <v>0.02599401859602189</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2296795982.567359</v>
+        <v>2287987776.79037</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08657876185710363</v>
+        <v>0.07264254686095957</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03001761729596879</v>
+        <v>0.02716141967563309</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2040519351.460406</v>
+        <v>2137213864.868563</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1237501131527096</v>
+        <v>0.1635926499875099</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05541869881300837</v>
+        <v>0.03885604464997158</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,16 +2055,25 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4723721787.5873</v>
+        <v>4206152409.665542</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1405230019198331</v>
+        <v>0.1242024705007271</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05502573068428312</v>
+        <v>0.03736233017280478</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>151</v>
+      </c>
+      <c r="J46" t="n">
+        <v>259</v>
+      </c>
+      <c r="K46" t="n">
+        <v>98.37928509020492</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2086,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4963568793.196445</v>
+        <v>3788922860.414807</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1282331432334433</v>
+        <v>0.125457277008594</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0597109088385857</v>
+        <v>0.04819549489647001</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>117</v>
+      </c>
+      <c r="J47" t="n">
+        <v>260</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1774,17 +2127,24 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3148664754.81158</v>
+        <v>3081271743.009812</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07528383376962849</v>
+        <v>0.1010064929818771</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03714386478159495</v>
+        <v>0.03820036668703814</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>128</v>
+      </c>
+      <c r="J48" t="n">
+        <v>257</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2156,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1829230762.732912</v>
+        <v>1301591437.719038</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1341839060987567</v>
+        <v>0.196451294672244</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02727419242825545</v>
+        <v>0.04209805574810517</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2191,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4052158610.545479</v>
+        <v>2582234324.871533</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1770440967873761</v>
+        <v>0.1778282477071349</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03588137299179442</v>
+        <v>0.05297886482859784</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>83</v>
+      </c>
+      <c r="J50" t="n">
+        <v>254</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1457020993.569048</v>
+        <v>1065007398.03827</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1272603115553508</v>
+        <v>0.1358075326851656</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03483695726380379</v>
+        <v>0.0537649494500016</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2261,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3900684758.578588</v>
+        <v>3239253963.368967</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09228869597017236</v>
+        <v>0.09076067510718884</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04767363539926764</v>
+        <v>0.06064586459064898</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>166</v>
+      </c>
+      <c r="J52" t="n">
+        <v>259</v>
+      </c>
+      <c r="K52" t="n">
+        <v>57.2924780070345</v>
       </c>
     </row>
     <row r="53">
@@ -1914,16 +2304,25 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3417803105.134389</v>
+        <v>3662430132.832932</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2033389990712768</v>
+        <v>0.2048423219957382</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02824991859577537</v>
+        <v>0.03369264388763057</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>36</v>
+      </c>
+      <c r="J53" t="n">
+        <v>259</v>
+      </c>
+      <c r="K53" t="n">
+        <v>75.05790260117358</v>
       </c>
     </row>
     <row r="54">
@@ -1936,23 +2335,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4646916590.46035</v>
+        <v>3870933510.84777</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1205502133520809</v>
+        <v>0.115104093411651</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03218749150370778</v>
+        <v>0.0491801392632732</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>137</v>
+      </c>
+      <c r="J54" t="n">
+        <v>260</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2370,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4190475397.871786</v>
+        <v>3125744089.650919</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2239581736727617</v>
+        <v>0.2198428166054635</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03205253185897385</v>
+        <v>0.02130783138398004</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>116</v>
+      </c>
+      <c r="J55" t="n">
+        <v>258</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1998,17 +2411,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1677548972.49801</v>
+        <v>1572652842.153371</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1425132661299117</v>
+        <v>0.1641316690241371</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04341988432378088</v>
+        <v>0.04784737156462336</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2440,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4161082262.600498</v>
+        <v>4444595841.99858</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1155204002519683</v>
+        <v>0.1617115862052682</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02646678973202493</v>
+        <v>0.0230327756304347</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>104</v>
+      </c>
+      <c r="J57" t="n">
+        <v>260</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2481,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1527342918.129956</v>
+        <v>1767748650.432097</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1871791227311991</v>
+        <v>0.162789756796319</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02983751987710132</v>
+        <v>0.0371502745668235</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2510,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4842424677.568407</v>
+        <v>3499408823.287754</v>
       </c>
       <c r="F59" t="n">
-        <v>0.103808319643639</v>
+        <v>0.110574654731198</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04882216981240026</v>
+        <v>0.04365440028975329</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>125</v>
+      </c>
+      <c r="J59" t="n">
+        <v>260</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2110,17 +2551,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2562978229.533414</v>
+        <v>3517782610.236606</v>
       </c>
       <c r="F60" t="n">
-        <v>0.149079922230336</v>
+        <v>0.1525352353773374</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03268342177277872</v>
+        <v>0.02528590091491685</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>37</v>
+      </c>
+      <c r="J60" t="n">
+        <v>260</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,22 +2580,31 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2447236865.136768</v>
+        <v>2095737960.207092</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1502539535082274</v>
+        <v>0.1455313119561101</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03043994735031371</v>
+        <v>0.02699132826267174</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>8</v>
+      </c>
+      <c r="J61" t="n">
+        <v>259</v>
+      </c>
+      <c r="K61" t="n">
+        <v>29.14473099157676</v>
       </c>
     </row>
     <row r="62">
@@ -2166,17 +2623,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1959883730.340685</v>
+        <v>1756272760.368939</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1479134280621687</v>
+        <v>0.1313488482046804</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0332859268422682</v>
+        <v>0.03867484912505676</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2652,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5318680801.120035</v>
+        <v>4253415766.376534</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07374600663766656</v>
+        <v>0.09128837321299749</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03661442690818142</v>
+        <v>0.04656703821457663</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>127</v>
+      </c>
+      <c r="J63" t="n">
+        <v>259</v>
+      </c>
+      <c r="K63" t="n">
+        <v>92.0144657060834</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2689,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4852930786.773165</v>
+        <v>5339453901.718344</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1395397336912975</v>
+        <v>0.1367034579018492</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0314701686438565</v>
+        <v>0.02499620851470856</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>128</v>
+      </c>
+      <c r="J64" t="n">
+        <v>259</v>
+      </c>
+      <c r="K64" t="n">
+        <v>96.96958726479825</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2732,25 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5687031676.521177</v>
+        <v>4595678589.291913</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1716356576884566</v>
+        <v>0.1678706524392205</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02762128872695889</v>
+        <v>0.02630623647665413</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>208</v>
+      </c>
+      <c r="J65" t="n">
+        <v>260</v>
+      </c>
+      <c r="K65" t="n">
+        <v>99.83299233706094</v>
       </c>
     </row>
     <row r="66">
@@ -2278,17 +2769,24 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3554851077.728023</v>
+        <v>3825633215.573409</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1491338250505496</v>
+        <v>0.1541440295670392</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03329055914403902</v>
+        <v>0.05000021374938717</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>128</v>
+      </c>
+      <c r="J66" t="n">
+        <v>260</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2306,17 +2804,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2945603662.99302</v>
+        <v>2455251399.600984</v>
       </c>
       <c r="F67" t="n">
-        <v>0.100452396541643</v>
+        <v>0.07906310507368375</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03435662639296356</v>
+        <v>0.03516372564697418</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>7</v>
+      </c>
+      <c r="J67" t="n">
+        <v>258</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2833,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5977047079.265431</v>
+        <v>5979815263.294015</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1554771622425715</v>
+        <v>0.1132508801162356</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04994795292433191</v>
+        <v>0.04721923058764383</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>132</v>
+      </c>
+      <c r="J68" t="n">
+        <v>260</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2455669171.369357</v>
+        <v>1995280028.398584</v>
       </c>
       <c r="F69" t="n">
-        <v>0.159204754770073</v>
+        <v>0.1464103115529823</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0566898074923756</v>
+        <v>0.05709612376158097</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3434531660.056426</v>
+        <v>2799292711.745929</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09183087614381864</v>
+        <v>0.08880653531123339</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0315220472266947</v>
+        <v>0.03236946576735508</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>39</v>
+      </c>
+      <c r="J70" t="n">
+        <v>243</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5296233649.694224</v>
+        <v>5050622069.375243</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1551370817307867</v>
+        <v>0.1426884337441295</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02950054022568954</v>
+        <v>0.02246609543708204</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>196</v>
+      </c>
+      <c r="J71" t="n">
+        <v>260</v>
+      </c>
+      <c r="K71" t="n">
+        <v>101.7469712280611</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2254244845.58053</v>
+        <v>2156584857.939366</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1087329115849221</v>
+        <v>0.08073114115000554</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04734813904063288</v>
+        <v>0.03492378922411642</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2853722886.757998</v>
+        <v>2465208490.153243</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09352663908894619</v>
+        <v>0.09470077627687722</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03853794965415727</v>
+        <v>0.04465501334981051</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>16</v>
+      </c>
+      <c r="J73" t="n">
+        <v>252</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,17 +3051,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3081436138.198206</v>
+        <v>3210979864.150542</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1677272133695365</v>
+        <v>0.1150691959616763</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0353687662903924</v>
+        <v>0.03015509897293085</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>73</v>
+      </c>
+      <c r="J74" t="n">
+        <v>254</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2366183393.513839</v>
+        <v>1676724384.228062</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1591494892929672</v>
+        <v>0.1260812770911955</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03285531732070209</v>
+        <v>0.03766818028134047</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3115,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4455483792.751855</v>
+        <v>3483010592.751366</v>
       </c>
       <c r="F76" t="n">
-        <v>0.124651225508894</v>
+        <v>0.1225283325082666</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03040597105534834</v>
+        <v>0.0301430169432377</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>121</v>
+      </c>
+      <c r="J76" t="n">
+        <v>260</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1683602918.02454</v>
+        <v>2086315643.941426</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1419949065295637</v>
+        <v>0.1693440806931476</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02362362453402118</v>
+        <v>0.02471224147559827</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3185,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4319359211.355354</v>
+        <v>4046440256.854867</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1185724025418923</v>
+        <v>0.1185417790877706</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04625431564260497</v>
+        <v>0.03566231906794937</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>130</v>
+      </c>
+      <c r="J78" t="n">
+        <v>260</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3220,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1408449220.668027</v>
+        <v>1892365219.366589</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1763991274827078</v>
+        <v>0.114872359954249</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03125149988305707</v>
+        <v>0.02620875076372869</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3255,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5472813767.25711</v>
+        <v>4519474226.933816</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1029810306868917</v>
+        <v>0.07146583430657069</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02334590182379302</v>
+        <v>0.03470567315869832</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>127</v>
+      </c>
+      <c r="J80" t="n">
+        <v>259</v>
+      </c>
+      <c r="K80" t="n">
+        <v>72.89258856019188</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3292,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5198322003.203809</v>
+        <v>4853564262.292883</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1191651411920331</v>
+        <v>0.1218231095341911</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02546762907220822</v>
+        <v>0.02420928458887183</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>119</v>
+      </c>
+      <c r="J81" t="n">
+        <v>259</v>
+      </c>
+      <c r="K81" t="n">
+        <v>86.96828779754635</v>
       </c>
     </row>
     <row r="82">
@@ -2726,16 +3335,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5030817103.558547</v>
+        <v>3542369715.16947</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1615917408546398</v>
+        <v>0.1862532150411519</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02790802246778536</v>
+        <v>0.020620749761483</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>196</v>
+      </c>
+      <c r="J82" t="n">
+        <v>259</v>
+      </c>
+      <c r="K82" t="n">
+        <v>70.944977175658</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2365111749.171968</v>
+        <v>2482485769.993136</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09647960108968906</v>
+        <v>0.1484917227456844</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04534489104059297</v>
+        <v>0.04157709346315606</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3407,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1805291604.89603</v>
+        <v>2453024236.97416</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1091493318054253</v>
+        <v>0.1158124876755442</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0424268829898652</v>
+        <v>0.03385574696850427</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3294959723.798038</v>
+        <v>3009804553.628266</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1488457027829488</v>
+        <v>0.1524753269401221</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04339833854582892</v>
+        <v>0.04301262318691387</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>36</v>
+      </c>
+      <c r="J85" t="n">
+        <v>251</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2532898390.186878</v>
+        <v>1696415540.598059</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1187276757310464</v>
+        <v>0.1380185386157053</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02123931422041319</v>
+        <v>0.02635542786177268</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1398495886.710166</v>
+        <v>1115739755.679129</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1511166038657144</v>
+        <v>0.1895470041698415</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02950809386381645</v>
+        <v>0.03679820048651286</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2425497105.443706</v>
+        <v>3293276767.471585</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1507096067625422</v>
+        <v>0.1495014117389058</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02832848958351658</v>
+        <v>0.02960424277285396</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>38</v>
+      </c>
+      <c r="J88" t="n">
+        <v>255</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2614909121.309623</v>
+        <v>2501435701.901642</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1241525617148032</v>
+        <v>0.1291474621731002</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04114746330997394</v>
+        <v>0.02610533197877971</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>20</v>
+      </c>
+      <c r="J89" t="n">
+        <v>258</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2138417837.675799</v>
+        <v>1364738197.9243</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08851941163208266</v>
+        <v>0.1120276321022917</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05601860881928108</v>
+        <v>0.05261472593455812</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1768259221.157079</v>
+        <v>1711322957.81721</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1358426816363811</v>
+        <v>0.1540671170492119</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05364752668125229</v>
+        <v>0.04378331910228977</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3687,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2531188296.271729</v>
+        <v>2230651286.113967</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07285422512018351</v>
+        <v>0.1096566383605474</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04235676757069984</v>
+        <v>0.03120324665899393</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,17 +3722,24 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4576669628.407445</v>
+        <v>3453270246.074592</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1276923546064692</v>
+        <v>0.115819951487593</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03805929483797017</v>
+        <v>0.04736079412053436</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>114</v>
+      </c>
+      <c r="J93" t="n">
+        <v>257</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1840664594.334751</v>
+        <v>1555889246.715227</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1238735381752317</v>
+        <v>0.113957279254336</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03227465890546884</v>
+        <v>0.04208360050899979</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3182861903.531542</v>
+        <v>2515668339.275371</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1176709787486516</v>
+        <v>0.08384800816741851</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03399984376704571</v>
+        <v>0.04076584006183378</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2044530415.427064</v>
+        <v>1959017635.609808</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1134000951486693</v>
+        <v>0.09594856642876472</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03639678693515119</v>
+        <v>0.04466311426037712</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4712727933.866758</v>
+        <v>4245594835.306845</v>
       </c>
       <c r="F97" t="n">
-        <v>0.139935345139835</v>
+        <v>0.1689156076628037</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02212265669698523</v>
+        <v>0.02206443389129382</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>128</v>
+      </c>
+      <c r="J97" t="n">
+        <v>260</v>
+      </c>
+      <c r="K97" t="n">
+        <v>99.02364647313469</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3701997213.987567</v>
+        <v>3718337325.007852</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1280385605525728</v>
+        <v>0.1045784864869868</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03203315631303132</v>
+        <v>0.02873835104133441</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>63</v>
+      </c>
+      <c r="J98" t="n">
+        <v>260</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3934,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2579033666.893994</v>
+        <v>2845779328.387791</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1146786239637397</v>
+        <v>0.093490740572107</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02666640100961092</v>
+        <v>0.02683259070572369</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>4</v>
+      </c>
+      <c r="J99" t="n">
+        <v>252</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3963,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3429137263.473844</v>
+        <v>4775928034.490197</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1318622246995272</v>
+        <v>0.1490859011270104</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01758020586830997</v>
+        <v>0.01872713275758743</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>109</v>
+      </c>
+      <c r="J100" t="n">
+        <v>260</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3258,16 +4004,25 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2292504247.227038</v>
+        <v>3307107266.16363</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2068566029607124</v>
+        <v>0.2179092870637931</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03907140574801621</v>
+        <v>0.04961569652092111</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>20</v>
+      </c>
+      <c r="J101" t="n">
+        <v>259</v>
+      </c>
+      <c r="K101" t="n">
+        <v>68.59701114937425</v>
       </c>
     </row>
   </sheetData>
